--- a/static/excel/客户已购买产品模版.xlsx
+++ b/static/excel/客户已购买产品模版.xlsx
@@ -1,40 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liulong/diy_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ypzhuang/work/projects/vue_projects/pig-ui/static/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3D728E46-2D58-AD47-B354-393DDF6BE4F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
-    <sheet name="工作表1 (BAK)" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'工作表1 (BAK)'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>固收</t>
     <rPh sb="0" eb="2">
@@ -101,72 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>性别</t>
-    <rPh sb="0" eb="2">
-      <t>ke hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <rPh sb="0" eb="2">
-      <t>shou ji hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号</t>
-    <rPh sb="0" eb="3">
-      <t>shen fen z</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件类型</t>
-    <rPh sb="0" eb="1">
-      <t>hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国籍</t>
-    <rPh sb="0" eb="2">
-      <t>ke hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>常住城市</t>
-    <rPh sb="0" eb="2">
-      <t>chang zhu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>上海</t>
-    <rPh sb="0" eb="2">
-      <t>shang hai</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-  </si>
-  <si>
-    <t>362502198311140000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>18717969765</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户编号</t>
     <rPh sb="0" eb="2">
       <t>ke hu</t>
@@ -211,13 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>理财师手机号</t>
-    <rPh sb="0" eb="1">
-      <t>hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>理财师部门</t>
     <rPh sb="0" eb="5">
       <t>bu men</t>
@@ -247,70 +173,6 @@
     <rPh sb="0" eb="2">
       <t>bang ding</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A端事业部|智能投研部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2DB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>理财师id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Convert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库对应字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -348,22 +210,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -393,7 +255,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -402,54 +264,18 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -499,7 +325,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,9 +341,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="40" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -527,9 +350,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="40" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,45 +363,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -590,24 +371,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -938,121 +716,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" style="7" customWidth="1"/>
-    <col min="2" max="2" width="14" style="8" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="8" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="13" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="17">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="17">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="17">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="17">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="30"/>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="17">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="17" customHeight="1"/>
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="17" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="32">
+      <c r="B8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="15">
         <v>43287</v>
       </c>
       <c r="H8" s="4">
         <v>1234</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>59</v>
+      <c r="I8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1066,31 +844,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1102,44 +880,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1148,284 +926,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
-    <col min="2" max="6" width="10.83203125" style="24"/>
-    <col min="7" max="7" width="23.1640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="16.6640625" style="24" customWidth="1"/>
-    <col min="12" max="12" width="47.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" style="10" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" style="10" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="24"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:16" s="12" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6">
-        <v>100</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="L9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B23:C23"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C6:C8 C12:C16 C21:C22 C24:C1048576">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F10 F12:F1048576">
-      <formula1>"身份证,护照,军官证"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D10 D12:D1048576">
-      <formula1>"中国,其他"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/static/excel/客户已购买产品模版.xlsx
+++ b/static/excel/客户已购买产品模版.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ypzhuang/work/projects/vue_projects/pig-ui/static/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3D728E46-2D58-AD47-B354-393DDF6BE4F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,20 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>固收</t>
     <rPh sb="0" eb="2">
@@ -93,20 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户姓名</t>
-    <rPh sb="0" eb="2">
-      <t>ke hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编号</t>
-    <rPh sb="0" eb="2">
-      <t>ke hu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打款金额（万）</t>
     <rPh sb="0" eb="2">
       <t>da kuan</t>
@@ -183,12 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刘龙</t>
-  </si>
-  <si>
-    <t>C10072</t>
-  </si>
-  <si>
     <t>鲁班</t>
   </si>
   <si>
@@ -205,27 +187,43 @@
   <si>
     <t>L0009</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户身份证号码</t>
+    <rPh sb="0" eb="2">
+      <t>ke hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shen fen zheng hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110101199003072818</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -255,7 +253,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -264,7 +262,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -325,7 +323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,21 +369,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -697,7 +710,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="437" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="700" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -716,121 +729,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" style="6" customWidth="1"/>
-    <col min="2" max="2" width="14" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" style="7" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="7"/>
+    <col min="2" max="2" width="20.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="37.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="17">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" ht="17">
-      <c r="A2" s="1" t="s">
+      <c r="B3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="17">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="17">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="17">
-      <c r="A5" s="16" t="s">
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" s="10" customFormat="1" ht="17" customHeight="1"/>
-    <row r="7" spans="1:10" s="10" customFormat="1" ht="17" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16">
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>25</v>
+      <c r="B8" s="21" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="15">
+      <c r="E8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="15">
         <v>43287</v>
       </c>
-      <c r="H8" s="4">
+      <c r="G8" s="4">
         <v>1234</v>
       </c>
+      <c r="H8" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="I8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -844,31 +852,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -880,44 +888,44 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
